--- a/data/trans_dic/iP30B1_2023-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/iP30B1_2023-Habitat-trans_dic.xlsx
@@ -546,7 +546,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>Menos de 2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>95,0%</t>
+          <t>95,59%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>96,21%</t>
+          <t>93,9%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>95,53%</t>
+          <t>94,6%</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>91,88; 97,09</t>
+          <t>76,55; 100,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>93,82; 97,98</t>
+          <t>77,28; 100,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>93,27; 96,98</t>
+          <t>84,73; 98,63</t>
         </is>
       </c>
     </row>
@@ -646,7 +646,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>10/50</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>91,87%</t>
+          <t>95,0%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>91,67%</t>
+          <t>96,21%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>91,77%</t>
+          <t>95,53%</t>
         </is>
       </c>
     </row>
@@ -679,24 +679,24 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>87,4; 95,1</t>
+          <t>91,88; 97,09</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>87,54; 94,6</t>
+          <t>93,82; 97,98</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>88,82; 94,06</t>
+          <t>93,27; 96,98</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>mas de 50</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>95,59%</t>
+          <t>93,98%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>93,9%</t>
+          <t>90,75%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>94,6%</t>
+          <t>92,38%</t>
         </is>
       </c>
     </row>
@@ -729,24 +729,24 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>76,55; 100,0</t>
+          <t>89,5; 96,57</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>77,28; 100,0</t>
+          <t>86,46; 94,23</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>84,73; 98,63</t>
+          <t>89,16; 94,58</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -756,17 +756,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>93,98%</t>
+          <t>91,87%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>90,75%</t>
+          <t>91,67%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>92,38%</t>
+          <t>91,77%</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>89,5; 96,57</t>
+          <t>87,4; 95,1</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>86,46; 94,23</t>
+          <t>87,54; 94,6</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>89,16; 94,58</t>
+          <t>88,82; 94,06</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/iP30B1_2023-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/iP30B1_2023-Habitat-trans_dic.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>71,91; 95,83</t>
+          <t>71,95; 96,01</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>86,78; 95,55</t>
+          <t>86,24; 95,28</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>81,79; 94,43</t>
+          <t>79,39; 94,35</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>91,88; 97,09</t>
+          <t>91,89; 96,98</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>93,82; 97,98</t>
+          <t>93,68; 97,84</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>93,27; 96,98</t>
+          <t>93,6; 96,97</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>89,5; 96,57</t>
+          <t>90,0; 96,54</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>86,46; 94,23</t>
+          <t>86,96; 94,41</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>89,16; 94,58</t>
+          <t>89,64; 94,7</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>87,4; 95,1</t>
+          <t>87,65; 95,11</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>87,54; 94,6</t>
+          <t>87,27; 94,63</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>88,82; 94,06</t>
+          <t>88,76; 94,21</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,24 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>89,77; 94,91</t>
+          <t>90,16; 94,81</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>90,99; 94,31</t>
+          <t>91,12; 94,45</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>91,22; 94,18</t>
+          <t>91,13; 94,1</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
